--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request800.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request800.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.144</v>
+        <v>20.144</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0712</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0616</v>
+        <v>0.0624</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0624</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.032</v>
+        <v>0.0312</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0208</v>
+        <v>0.0216</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0176</v>
+        <v>0.0168</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.8456</v>
+        <v>6.846400000000001</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3592</v>
+        <v>0.3576</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.024</v>
+        <v>0.0248</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06080000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1664</v>
+        <v>0.1672</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03680000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03920000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0352</v>
+        <v>0.0344</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0144</v>
+        <v>0.0152</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3432000000000001</v>
+        <v>0.3424</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.36</v>
+        <v>0.3608</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.2872</v>
+        <v>6.288</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9352</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.416</v>
+        <v>0.4168</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4584</v>
+        <v>0.4576</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4136</v>
+        <v>0.4144</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.404</v>
+        <v>0.4032000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.878400000000001</v>
+        <v>5.8776</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.9224</v>
+        <v>3.9232</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.428</v>
+        <v>0.4272</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18.9176</v>
+        <v>18.9184</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>0.3984</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="136">
@@ -1927,7 +1927,7 @@
         <v>2.14</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="137">
@@ -1938,7 +1938,7 @@
         <v>1.516</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="138">
@@ -1949,7 +1949,7 @@
         <v>0.4368</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>0.4296</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>2.0768</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>0.368</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>3.3144</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="143">
@@ -2004,7 +2004,7 @@
         <v>1.9904</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="144">
@@ -2023,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.96</v>
+        <v>0.9608000000000001</v>
       </c>
       <c r="C145" t="n">
         <v>312501</v>
@@ -2034,7 +2034,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.908</v>
+        <v>4.9072</v>
       </c>
       <c r="C146" t="n">
         <v>312501</v>
@@ -2045,7 +2045,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9128000000000001</v>
+        <v>0.9136</v>
       </c>
       <c r="C147" t="n">
         <v>312501</v>
@@ -2056,7 +2056,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.908</v>
+        <v>12.9072</v>
       </c>
       <c r="C148" t="n">
         <v>312501</v>
@@ -2661,7 +2661,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C203" t="n">
         <v>312501</v>
@@ -2672,7 +2672,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.252</v>
+        <v>1.2528</v>
       </c>
       <c r="C204" t="n">
         <v>312501</v>
@@ -2961,7 +2961,7 @@
         <v>0.476</v>
       </c>
       <c r="C230" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="231">
@@ -2972,7 +2972,7 @@
         <v>0.4</v>
       </c>
       <c r="C231" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="232">
@@ -2983,7 +2983,7 @@
         <v>0.892</v>
       </c>
       <c r="C232" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="233">
@@ -2994,7 +2994,7 @@
         <v>2.104</v>
       </c>
       <c r="C233" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="234">
@@ -3005,7 +3005,7 @@
         <v>0.86</v>
       </c>
       <c r="C234" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="235">
@@ -3016,7 +3016,7 @@
         <v>0.624</v>
       </c>
       <c r="C235" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="236">
@@ -3984,7 +3984,7 @@
         <v>0.664</v>
       </c>
       <c r="C323" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="324">
@@ -3995,7 +3995,7 @@
         <v>2.496</v>
       </c>
       <c r="C324" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="325">
@@ -4006,7 +4006,7 @@
         <v>1.192</v>
       </c>
       <c r="C325" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="326">
@@ -4017,7 +4017,7 @@
         <v>3.644</v>
       </c>
       <c r="C326" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="327">
@@ -4028,7 +4028,7 @@
         <v>0.984</v>
       </c>
       <c r="C327" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="328">
@@ -4501,7 +4501,7 @@
         <v>0.436</v>
       </c>
       <c r="C370" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="371">
@@ -4512,7 +4512,7 @@
         <v>2.848</v>
       </c>
       <c r="C371" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="372">
@@ -4523,7 +4523,7 @@
         <v>14.84</v>
       </c>
       <c r="C372" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="373">
@@ -4850,7 +4850,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>5.888</v>
+        <v>5.8888</v>
       </c>
       <c r="C402" t="n">
         <v>1250001</v>
@@ -4861,7 +4861,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1.3576</v>
+        <v>1.3568</v>
       </c>
       <c r="C403" t="n">
         <v>1250001</v>
@@ -4905,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.2496</v>
+        <v>0.2504</v>
       </c>
       <c r="C407" t="n">
         <v>1250001</v>
@@ -4916,7 +4916,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.36</v>
+        <v>0.3592</v>
       </c>
       <c r="C408" t="n">
         <v>1250001</v>
@@ -4949,7 +4949,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1.2696</v>
+        <v>1.2704</v>
       </c>
       <c r="C411" t="n">
         <v>1250001</v>
@@ -4960,7 +4960,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.2064</v>
+        <v>0.2056</v>
       </c>
       <c r="C412" t="n">
         <v>1250001</v>
@@ -4971,7 +4971,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.3</v>
+        <v>0.3008</v>
       </c>
       <c r="C413" t="n">
         <v>1250001</v>
@@ -4982,7 +4982,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4192000000000001</v>
+        <v>0.4184</v>
       </c>
       <c r="C414" t="n">
         <v>1250001</v>
@@ -5037,7 +5037,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.264</v>
+        <v>0.2648</v>
       </c>
       <c r="C419" t="n">
         <v>1250001</v>
@@ -5059,7 +5059,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.4088</v>
+        <v>0.408</v>
       </c>
       <c r="C421" t="n">
         <v>1250001</v>
@@ -5733,7 +5733,7 @@
         <v>2.8</v>
       </c>
       <c r="C482" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="483">
@@ -5744,7 +5744,7 @@
         <v>4.9728</v>
       </c>
       <c r="C483" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="484">
@@ -5755,7 +5755,7 @@
         <v>3.269600000000001</v>
       </c>
       <c r="C484" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="485">
@@ -6162,7 +6162,7 @@
         <v>12.4272</v>
       </c>
       <c r="C521" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="522">
@@ -6173,7 +6173,7 @@
         <v>17.4192</v>
       </c>
       <c r="C522" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="523">
@@ -6390,7 +6390,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>3.8848</v>
+        <v>3.884</v>
       </c>
       <c r="C542" t="n">
         <v>1875001</v>
@@ -6401,7 +6401,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>31.9576</v>
+        <v>31.9584</v>
       </c>
       <c r="C543" t="n">
         <v>1875001</v>
@@ -7303,7 +7303,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>0.472</v>
+        <v>0.4728</v>
       </c>
       <c r="C625" t="n">
         <v>2500001</v>
@@ -7314,7 +7314,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>0.3776</v>
+        <v>0.3768</v>
       </c>
       <c r="C626" t="n">
         <v>2500001</v>
@@ -7647,7 +7647,7 @@
         <v>2.8008</v>
       </c>
       <c r="C656" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="657">
@@ -7658,7 +7658,7 @@
         <v>4.9728</v>
       </c>
       <c r="C657" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="658">
@@ -7669,7 +7669,7 @@
         <v>3.2688</v>
       </c>
       <c r="C658" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="659">
@@ -8032,7 +8032,7 @@
         <v>12.4264</v>
       </c>
       <c r="C691" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="692">
@@ -8043,7 +8043,7 @@
         <v>17.42</v>
       </c>
       <c r="C692" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="693">
@@ -9517,7 +9517,7 @@
         <v>2.8008</v>
       </c>
       <c r="C826" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="827">
@@ -9528,7 +9528,7 @@
         <v>4.9728</v>
       </c>
       <c r="C827" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="828">
@@ -9539,7 +9539,7 @@
         <v>3.2688</v>
       </c>
       <c r="C828" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="829">
@@ -9646,7 +9646,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>1.4248</v>
+        <v>1.424</v>
       </c>
       <c r="C838" t="n">
         <v>4062501</v>
@@ -9668,7 +9668,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>0.8944000000000001</v>
+        <v>0.8952</v>
       </c>
       <c r="C840" t="n">
         <v>4062501</v>
@@ -9902,7 +9902,7 @@
         <v>12.4272</v>
       </c>
       <c r="C861" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="862">
@@ -9913,7 +9913,7 @@
         <v>17.4192</v>
       </c>
       <c r="C862" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="863">
@@ -11208,7 +11208,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>0.4392</v>
+        <v>0.44</v>
       </c>
       <c r="C980" t="n">
         <v>5000001</v>
@@ -11219,7 +11219,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>2.44</v>
+        <v>2.4392</v>
       </c>
       <c r="C981" t="n">
         <v>5000001</v>
@@ -11387,7 +11387,7 @@
         <v>2.8008</v>
       </c>
       <c r="C996" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="997">
@@ -11398,7 +11398,7 @@
         <v>4.9736</v>
       </c>
       <c r="C997" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="998">
@@ -11409,7 +11409,7 @@
         <v>3.268</v>
       </c>
       <c r="C998" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="999">
@@ -11772,7 +11772,7 @@
         <v>12.428</v>
       </c>
       <c r="C1031" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1032">
@@ -11783,7 +11783,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1032" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1033">
@@ -13257,7 +13257,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1166" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1167">
@@ -13268,7 +13268,7 @@
         <v>4.9736</v>
       </c>
       <c r="C1167" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1168">
@@ -13279,7 +13279,7 @@
         <v>3.268</v>
       </c>
       <c r="C1168" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1169">
@@ -13642,7 +13642,7 @@
         <v>12.428</v>
       </c>
       <c r="C1201" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1202">
@@ -13653,7 +13653,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1202" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1203">
@@ -15127,7 +15127,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1336" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1337">
@@ -15138,7 +15138,7 @@
         <v>4.9736</v>
       </c>
       <c r="C1337" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1338">
@@ -15149,7 +15149,7 @@
         <v>3.268</v>
       </c>
       <c r="C1338" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1339">
@@ -15512,7 +15512,7 @@
         <v>12.428</v>
       </c>
       <c r="C1371" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1372">
@@ -15523,7 +15523,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1372" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1373">
@@ -16997,7 +16997,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1506" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1507">
@@ -17008,7 +17008,7 @@
         <v>4.9728</v>
       </c>
       <c r="C1507" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1508">
@@ -17019,7 +17019,7 @@
         <v>3.2688</v>
       </c>
       <c r="C1508" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1509">
@@ -17382,7 +17382,7 @@
         <v>12.4272</v>
       </c>
       <c r="C1541" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1542">
@@ -17393,7 +17393,7 @@
         <v>17.4192</v>
       </c>
       <c r="C1542" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1543">
@@ -18867,7 +18867,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1676" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1677">
@@ -18878,7 +18878,7 @@
         <v>4.9728</v>
       </c>
       <c r="C1677" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1678">
@@ -18889,7 +18889,7 @@
         <v>3.2688</v>
       </c>
       <c r="C1678" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1679">
@@ -19252,7 +19252,7 @@
         <v>12.4272</v>
       </c>
       <c r="C1711" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1712">
@@ -19263,7 +19263,7 @@
         <v>17.4192</v>
       </c>
       <c r="C1712" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1713">
@@ -20737,7 +20737,7 @@
         <v>2.8008</v>
       </c>
       <c r="C1846" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1847">
@@ -20748,7 +20748,7 @@
         <v>4.9728</v>
       </c>
       <c r="C1847" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1848">
@@ -20759,7 +20759,7 @@
         <v>3.2688</v>
       </c>
       <c r="C1848" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1849">
@@ -21122,7 +21122,7 @@
         <v>12.4272</v>
       </c>
       <c r="C1881" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1882">
@@ -21133,7 +21133,7 @@
         <v>17.4192</v>
       </c>
       <c r="C1882" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1883">
@@ -21460,7 +21460,7 @@
         <v>1910</v>
       </c>
       <c r="B1912" t="n">
-        <v>41.7264</v>
+        <v>25.7264</v>
       </c>
       <c r="C1912" t="n">
         <v>12187501</v>
